--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549678.4276601059</v>
+        <v>545716.6545628384</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>11851279.69682649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901944</v>
+        <v>2519657.038588233</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6966159.851156428</v>
+        <v>7876184.280759746</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5560090896476</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>17.52186547709835</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>154.9237069484775</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>132.9676529864975</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -899,13 +901,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>119.0131614123043</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>58.67748875058447</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>49.87597792716521</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1133,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>161.0981049699308</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>58.67748875058447</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429393</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>69.61444029309493</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.0037482136084</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>54.40598247816828</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.5854374042941</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526347924</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.03169761275359</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1813,16 +1815,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.6088837131865</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2005,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>11.12043047005062</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>79.47996908724096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>46.98586264866587</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>244.3275881150121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>57.29215110549318</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>66.81647466755462</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170415</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031836</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3718,13 +3720,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>180.2983300927849</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3898,19 +3900,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>106.7228969293694</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>229.090565962548</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>58.67748875058447</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4141,16 +4143,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>75.38193086464887</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>47.54880396835567</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.792697513689</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.891967526989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D2" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E2" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F2" t="n">
         <v>44.49822504924752</v>
@@ -4331,22 +4333,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336854</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336854</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>1123.5801824935</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462376</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2004.147606917277</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.792697513689</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.792697513689</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W2" t="n">
-        <v>1745.792697513689</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.792697513689</v>
+        <v>869.6838593858872</v>
       </c>
       <c r="Y2" t="n">
-        <v>1745.792697513689</v>
+        <v>464.3465893407776</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K3" t="n">
-        <v>866.8612493132766</v>
+        <v>1238.586646145896</v>
       </c>
       <c r="L3" t="n">
-        <v>1220.501010560616</v>
+        <v>1238.586646145896</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.501010560616</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.851167577505</v>
+        <v>760.6033552200906</v>
       </c>
       <c r="C4" t="n">
-        <v>948.878604456421</v>
+        <v>588.6307920990066</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>588.6307920990066</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>588.6307920990066</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4513,25 +4515,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>2054.776204981511</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>2054.776204981511</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V4" t="n">
-        <v>2054.776204981511</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W4" t="n">
-        <v>1779.923801154024</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="X4" t="n">
-        <v>1537.359904599829</v>
+        <v>1177.112092242414</v>
       </c>
       <c r="Y4" t="n">
-        <v>1311.017136289571</v>
+        <v>950.7693239321563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.792697513689</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.891967526989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D5" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
         <v>44.49822504924752</v>
@@ -4565,19 +4567,19 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O5" t="n">
         <v>2224.911252462376</v>
@@ -4601,16 +4603,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>2104.695937904493</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462376</v>
+        <v>1708.30458820484</v>
       </c>
       <c r="X5" t="n">
-        <v>2165.64106180522</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="Y5" t="n">
-        <v>2165.64106180522</v>
+        <v>891.2473193274775</v>
       </c>
     </row>
     <row r="6">
@@ -4626,16 +4628,16 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
         <v>44.49822504924752</v>
@@ -4650,13 +4652,13 @@
         <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N6" t="n">
-        <v>1696.494830002561</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7123380797763</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>266.7397749586924</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="D7" t="n">
-        <v>216.3599992746871</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="E7" t="n">
-        <v>216.3599992746871</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924752</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924752</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
@@ -4750,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656295</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>855.2210751020999</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>628.878306791842</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.792697513689</v>
+        <v>630.516204419733</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.891967526989</v>
+        <v>630.516204419733</v>
       </c>
       <c r="D8" t="n">
-        <v>895.5993467119897</v>
+        <v>207.2235836047332</v>
       </c>
       <c r="E8" t="n">
-        <v>469.6224068598473</v>
+        <v>207.2235836047332</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>207.2235836047332</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924752</v>
@@ -4805,16 +4807,16 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336854</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002561</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
         <v>2224.911252462376</v>
@@ -4838,16 +4840,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X8" t="n">
-        <v>2165.64106180522</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.64106180522</v>
+        <v>1050.364568711263</v>
       </c>
     </row>
     <row r="9">
@@ -4863,16 +4865,16 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
         <v>44.49822504924752</v>
@@ -4881,19 +4883,19 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764434</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>751.8547856608814</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608814</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M9" t="n">
+        <v>751.8547856608812</v>
+      </c>
+      <c r="N9" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924752</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924752</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924752</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924752</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924752</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1745.792697513689</v>
+        <v>2125.556535424037</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.891967526989</v>
+        <v>2070.600997567301</v>
       </c>
       <c r="D11" t="n">
-        <v>895.5993467119897</v>
+        <v>1647.308376752302</v>
       </c>
       <c r="E11" t="n">
-        <v>469.6224068598473</v>
+        <v>1221.331436900159</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>796.2072550895596</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>391.8681926790081</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>229.1755420008006</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924752</v>
+        <v>944.6838499762997</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336854</v>
+        <v>1874.308897595576</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>2878.594999014635</v>
       </c>
       <c r="N11" t="n">
-        <v>1696.494830002561</v>
+        <v>3854.846057501336</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652148</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652148</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652148</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652148</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335516</v>
+        <v>4595.623413525288</v>
       </c>
       <c r="T11" t="n">
-        <v>2120.543958335516</v>
+        <v>4374.697842569921</v>
       </c>
       <c r="U11" t="n">
-        <v>2120.543958335516</v>
+        <v>4116.342933166333</v>
       </c>
       <c r="V11" t="n">
-        <v>2120.543958335516</v>
+        <v>3758.853518292583</v>
       </c>
       <c r="W11" t="n">
-        <v>2120.543958335516</v>
+        <v>3362.46216859293</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.543958335516</v>
+        <v>2950.742169760677</v>
       </c>
       <c r="Y11" t="n">
-        <v>2120.543958335516</v>
+        <v>2545.404899715567</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.6217160807028</v>
+        <v>661.1233051844981</v>
       </c>
       <c r="C12" t="n">
-        <v>494.1158125982075</v>
+        <v>543.6174017020029</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>439.777443217288</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>335.0755094902252</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>241.4296791731293</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>147.3759073907333</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>365.697303432634</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924752</v>
+        <v>365.697303432634</v>
       </c>
       <c r="L12" t="n">
-        <v>44.49822504924752</v>
+        <v>1186.489727695055</v>
       </c>
       <c r="M12" t="n">
-        <v>595.1637600336854</v>
+        <v>1186.489727695055</v>
       </c>
       <c r="N12" t="n">
-        <v>1145.829295018124</v>
+        <v>1186.489727695055</v>
       </c>
       <c r="O12" t="n">
-        <v>1696.494830002561</v>
+        <v>1186.489727695055</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="R12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="S12" t="n">
-        <v>1771.861608191012</v>
+        <v>1821.363197294807</v>
       </c>
       <c r="T12" t="n">
-        <v>1629.98167248869</v>
+        <v>1679.483261592485</v>
       </c>
       <c r="U12" t="n">
-        <v>1445.213476408327</v>
+        <v>1494.715065512122</v>
       </c>
       <c r="V12" t="n">
-        <v>1240.240337547593</v>
+        <v>1289.741926651388</v>
       </c>
       <c r="W12" t="n">
-        <v>1043.71896038081</v>
+        <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>880.2416141474731</v>
+        <v>929.7432032512685</v>
       </c>
       <c r="Y12" t="n">
-        <v>740.5487255007655</v>
+        <v>790.0503146045609</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.7432593109769</v>
+        <v>318.0788797027068</v>
       </c>
       <c r="C13" t="n">
-        <v>458.7432593109769</v>
+        <v>146.1063165816228</v>
       </c>
       <c r="D13" t="n">
-        <v>458.7432593109769</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="E13" t="n">
-        <v>458.7432593109769</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304295</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734055</v>
+        <v>151.491142377201</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792427</v>
+        <v>378.0187435830381</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736634</v>
+        <v>732.7080648774589</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743914</v>
+        <v>1123.89385984771</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.88378161995</v>
+        <v>1501.385370723746</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299713</v>
+        <v>1856.813499403509</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221614</v>
+        <v>2147.412711325409</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2227.374228253344</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2057.239180772479</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1813.899832998379</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1533.715384498684</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1252.003917106712</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>977.1515132792254</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>734.5876167250304</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>508.2448484147725</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2150.131759924241</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1723.231029937541</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1299.938409122541</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>873.9614692703988</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>448.8372874597989</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>407.101683866143</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>407.101683866143</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>957.767218850581</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1508.432753835019</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2059.098288819457</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462376</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462376</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.911252462376</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.911252462376</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924752</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924752</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M15" t="n">
-        <v>44.49822504924752</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N15" t="n">
-        <v>595.1637600336854</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O15" t="n">
-        <v>1145.829295018124</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P15" t="n">
-        <v>1696.494830002561</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>458.7432593109769</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>458.7432593109769</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>458.7432593109769</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E16" t="n">
-        <v>458.7432593109769</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.49822504924752</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>44.49822504924752</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>44.49822504924752</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>44.49822504924752</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924752</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336854</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002561</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462376</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>1966.556343058788</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>1609.066928185037</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>1212.675578485384</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>800.9555796531315</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>395.6183096080218</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336854</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>595.1637600336854</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O18" t="n">
-        <v>1145.829295018124</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1696.494830002561</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>717.8575411161469</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>545.8849779950629</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>382.5682051218336</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>216.3599992746871</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2213.678494411819</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2213.678494411819</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1933.494045912124</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1651.782578520152</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1376.930174692665</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1134.366278138471</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.0235098282126</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1060.971740130866</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W25" t="n">
-        <v>1477.48047715319</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="X25" t="n">
-        <v>1477.48047715319</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="Y25" t="n">
-        <v>1251.137708842932</v>
+        <v>3845.931202281451</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>195.4640539534684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6303,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>3100.930848725444</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>3100.930848725444</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U28" t="n">
-        <v>2002.531292319261</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V28" t="n">
-        <v>2002.531292319261</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C30" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D30" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E30" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F30" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G30" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>4362.434577686963</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S30" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T30" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U30" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V30" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W30" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X30" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y30" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3913.422590834537</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>4139.765359144795</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>4139.765359144795</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3913.422590834537</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3619.314716995755</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C34" t="n">
-        <v>3447.342153874671</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="D34" t="n">
-        <v>3284.025381001441</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="E34" t="n">
-        <v>3117.817175154295</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="F34" t="n">
-        <v>2945.955400928855</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791732</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>4553.23975439976</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>4278.387350572273</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X34" t="n">
-        <v>4035.823454018078</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y34" t="n">
-        <v>3809.48068570782</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6953,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.931202281452</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>3845.931202281452</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>3845.931202281452</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3845.931202281452</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7190,19 +7192,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5299206506891</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>941.9189991784958</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C40" t="n">
-        <v>769.9464360574118</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841825</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1589.056897064296</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1314.204493236809</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1132.084967890562</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.084967890562</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
         <v>839.4070255988738</v>
@@ -7409,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F42" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>4143.246847793824</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>4143.246847793824</v>
       </c>
       <c r="N42" t="n">
-        <v>1158.289251381874</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R42" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S42" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T42" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U42" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V42" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W42" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>3205.840321740789</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>3098.039415751527</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T43" t="n">
-        <v>2112.580693338092</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U43" t="n">
-        <v>1832.396244838396</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V43" t="n">
-        <v>1600.991632755014</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1745.792697513689</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1318.891967526989</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>895.5993467119897</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>469.6224068598473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924752</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>957.767218850581</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>957.767218850581</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M44" t="n">
-        <v>957.767218850581</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.603903091852</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O44" t="n">
-        <v>1100.603903091852</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.26943807629</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462376</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.911252462376</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2224.911252462376</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2165.64106180522</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2165.64106180522</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>323.6423572907505</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>669.8354755761782</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>669.8354755761782</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1220.501010560616</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
-        <v>1220.501010560616</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>689.7920353825529</v>
+        <v>775.7107933313492</v>
       </c>
       <c r="C46" t="n">
-        <v>517.8194722614688</v>
+        <v>603.7382302102652</v>
       </c>
       <c r="D46" t="n">
-        <v>354.5026993882395</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E46" t="n">
-        <v>188.2944935410931</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F46" t="n">
-        <v>188.2944935410931</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>188.2944935410931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734052</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792424</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736632</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2148.767887952629</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1905.428540178529</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1905.428540178529</v>
+        <v>1991.347298127326</v>
       </c>
       <c r="V46" t="n">
-        <v>1623.717072786558</v>
+        <v>1709.635830735355</v>
       </c>
       <c r="W46" t="n">
-        <v>1348.864668959071</v>
+        <v>1434.783426907868</v>
       </c>
       <c r="X46" t="n">
-        <v>1106.300772404876</v>
+        <v>1192.219530353673</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.9580040946184</v>
+        <v>965.8767620434148</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>110.4928214404738</v>
       </c>
       <c r="N2" t="n">
-        <v>571.0335849150665</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8058,16 +8060,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
-        <v>379.7269667620472</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8079,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>571.0335849150664</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8298,16 +8300,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>181.3705437721216</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O6" t="n">
-        <v>181.445652982016</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150257</v>
+        <v>571.1852249800523</v>
       </c>
       <c r="N8" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366444</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8529,22 +8531,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>178.8848775931272</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279219</v>
+        <v>181.3705437721216</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>165.9610987257458</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>571.1449214366444</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8766,25 +8768,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>851.5983435449575</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>180.0446044646224</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>204.8788014195786</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204226</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,22 +9166,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>594.5398555482168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>571.1449214366444</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9249,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279219</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378161</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.17301358442559</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,10 +9406,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>123.5223236751217</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>300.5735435756951</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,7 +10436,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>121.8329647736524</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>280.9020403556215</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10920,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11075,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11142,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O42" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104032</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>809.386345155451</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>181.5591018660328</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258253</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>372.0892523034623</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279219</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378161</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11397,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.160306156165575</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>390.0809333668319</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.75989819601952</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>37.17550349668772</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,19 +22755,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22841,16 +22843,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>234.9013593127087</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>348.9253100933457</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>111.8076272173318</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>19.29091348988686</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23021,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>239.197566816515</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23078,16 +23080,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>348.9253100933457</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>154.4649003340604</v>
       </c>
     </row>
     <row r="11">
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.64613243500634</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>368.2257402086645</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568373</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.6181830358611</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.04099693542821</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23938,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>157.3132665360059</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>90.77286840263218</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24136,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>123.2669748412073</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>27.77629167419997</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>112.96068638438</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>103.4363628223185</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.18544517283162</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>153.4739695386591</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>106.2309441183566</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>59.83992749586798</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>63.52994056050377</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>49.80378675550338</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>348.9253100933457</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>93.05176614140763</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>229.8338000463431</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>458021.1317160085</v>
+        <v>716455.3054896001</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>458021.1317160085</v>
+        <v>759802.4575137453</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>458021.1317160086</v>
+        <v>759802.4575137453</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759802.4575137454</v>
+        <v>759802.4575137453</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759802.4575137454</v>
+        <v>759802.4575137453</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759802.4575137453</v>
+        <v>759802.4575137452</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759802.4575137453</v>
+        <v>759802.4575137454</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>458021.1317160086</v>
+        <v>759802.4575137453</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169412.1915076494</v>
+        <v>169412.1915076495</v>
       </c>
       <c r="C2" t="n">
-        <v>169412.1915076494</v>
+        <v>169412.1915076495</v>
       </c>
       <c r="D2" t="n">
         <v>169412.1915076495</v>
       </c>
       <c r="E2" t="n">
-        <v>169412.1915076494</v>
+        <v>264984.810587169</v>
       </c>
       <c r="F2" t="n">
-        <v>169412.1915076495</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="G2" t="n">
-        <v>169412.1915076494</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="H2" t="n">
         <v>281015.2015687237</v>
@@ -26341,19 +26343,19 @@
         <v>281015.2015687236</v>
       </c>
       <c r="L2" t="n">
+        <v>281015.2015687237</v>
+      </c>
+      <c r="M2" t="n">
         <v>281015.2015687236</v>
-      </c>
-      <c r="M2" t="n">
-        <v>281015.2015687237</v>
       </c>
       <c r="N2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="O2" t="n">
-        <v>281015.2015687237</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="P2" t="n">
-        <v>169412.1915076494</v>
+        <v>281015.2015687235</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>184751.0683929129</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>29737.45639129547</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875097</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>154199.925137778</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25420.05256608763</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>34949.10619715249</v>
       </c>
       <c r="C4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="D4" t="n">
         <v>34949.10619715249</v>
       </c>
       <c r="E4" t="n">
-        <v>34949.10619715249</v>
+        <v>54744.27166306667</v>
       </c>
       <c r="F4" t="n">
-        <v>34949.10619715249</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>34949.10619715249</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="O4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
-        <v>34949.10619715249</v>
+        <v>58064.51385187963</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>71439.85875631263</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119387.8991416683</v>
+        <v>-119387.8991416684</v>
       </c>
       <c r="C6" t="n">
-        <v>67016.83427306882</v>
+        <v>67016.83427306889</v>
       </c>
       <c r="D6" t="n">
-        <v>67016.83427306887</v>
+        <v>67016.83427306892</v>
       </c>
       <c r="E6" t="n">
-        <v>100644.4342730688</v>
+        <v>-45950.38822512323</v>
       </c>
       <c r="F6" t="n">
-        <v>100644.4342730689</v>
+        <v>115463.1691371188</v>
       </c>
       <c r="G6" t="n">
-        <v>100644.4342730688</v>
+        <v>145200.6255284144</v>
       </c>
       <c r="H6" t="n">
-        <v>-49751.51445909534</v>
+        <v>145200.6255284144</v>
       </c>
       <c r="I6" t="n">
-        <v>145200.6255284143</v>
+        <v>145200.6255284144</v>
       </c>
       <c r="J6" t="n">
-        <v>-333.044406402114</v>
+        <v>-333.0444064021285</v>
       </c>
       <c r="K6" t="n">
         <v>145200.6255284143</v>
       </c>
       <c r="L6" t="n">
-        <v>145200.6255284143</v>
+        <v>145200.6255284144</v>
       </c>
       <c r="M6" t="n">
-        <v>145200.6255284143</v>
+        <v>-8999.299609363661</v>
       </c>
       <c r="N6" t="n">
-        <v>145200.6255284144</v>
+        <v>119780.5729623267</v>
       </c>
       <c r="O6" t="n">
         <v>145200.6255284143</v>
       </c>
       <c r="P6" t="n">
-        <v>100644.4342730688</v>
+        <v>145200.6255284142</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>1174.997676913037</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>618.7698637974429</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>103.7862406598196</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572629</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974429</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598196</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974429</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598196</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572629</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>73.06155854104202</v>
       </c>
       <c r="N2" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
-        <v>357.2118800478177</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.7539620806203</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O6" t="n">
-        <v>158.2737632597938</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155939</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>533.7539620806203</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155939</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>136.5411392401593</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>533.7539620806203</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>829.0832568307279</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>158.2737632597938</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>167.4878420635545</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155939</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>533.7539620806203</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155939</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155939</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.42597529544709</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,10 +36126,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8052598432935</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37795,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155939</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>771.0743027228281</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>144.2794790315867</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155939</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>349.690018470129</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155939</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155939</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>545716.6545628384</v>
+        <v>543290.0620785553</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2519657.038588233</v>
+        <v>2519657.038588237</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>108.8836656288775</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>17.52186547709835</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>132.9676529864975</v>
+        <v>167.816479012923</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -879,7 +879,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>184.3205494158896</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>119.0131614123043</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.0673923170403</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>138.1728035327951</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>161.0981049699308</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188589</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.61444029309493</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>54.40598247816828</v>
+        <v>19.85807993419036</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5854374042941</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>57.29215110549318</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0673923170415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>58.31517967031836</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>106.7228969293694</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>47.54880396835567</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.49822504924752</v>
+        <v>487.2469754669713</v>
       </c>
       <c r="C2" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D2" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336855</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M2" t="n">
-        <v>1218.160237973755</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958193</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102811</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031583</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X2" t="n">
-        <v>869.6838593858872</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.3465893407776</v>
+        <v>907.0953397585014</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614576</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K3" t="n">
-        <v>1238.586646145896</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L3" t="n">
-        <v>1238.586646145896</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M3" t="n">
-        <v>1674.245717477938</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>2224.911252462376</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.911252462376</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.6033552200906</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>588.6307920990066</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>588.6307920990066</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E4" t="n">
-        <v>588.6307920990066</v>
+        <v>313.77838827152</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065849</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008171</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089715</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
         <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.38745618858</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.675988796609</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1419.675988796609</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1177.112092242414</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>950.7693239321563</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.3989550359474</v>
+        <v>653.9732190116105</v>
       </c>
       <c r="C5" t="n">
-        <v>44.49822504924752</v>
+        <v>653.9732190116105</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>230.6805981966107</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>230.6805981966107</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>230.6805981966107</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>230.6805981966107</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505811</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.098288819457</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462376</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2104.695937904493</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1708.30458820484</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>1296.584589372587</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y5" t="n">
-        <v>891.2473193274775</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336855</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608812</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5772905989112</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5772905989112</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5772905989112</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5772905989112</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>268.5772905989112</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>630.516204419733</v>
+        <v>1354.712628918076</v>
       </c>
       <c r="C8" t="n">
-        <v>630.516204419733</v>
+        <v>927.8118989313758</v>
       </c>
       <c r="D8" t="n">
-        <v>207.2235836047332</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="E8" t="n">
-        <v>207.2235836047332</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F8" t="n">
-        <v>207.2235836047332</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336855</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1455.701838756373</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1050.364568711263</v>
+        <v>1494.281117335041</v>
       </c>
     </row>
     <row r="9">
@@ -4871,37 +4871,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336855</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336855</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1944.72680396268</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>1663.015336570709</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W10" t="n">
-        <v>1388.162932743222</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X10" t="n">
-        <v>1388.162932743222</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2125.556535424037</v>
+        <v>2125.556535424023</v>
       </c>
       <c r="C11" t="n">
-        <v>2070.600997567301</v>
+        <v>2105.49786882383</v>
       </c>
       <c r="D11" t="n">
-        <v>1647.308376752302</v>
+        <v>1682.20524800883</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.331436900159</v>
+        <v>1256.228308156688</v>
       </c>
       <c r="F11" t="n">
-        <v>796.2072550895596</v>
+        <v>831.104126346088</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8681926790081</v>
+        <v>426.7650639355367</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99981415304295</v>
+        <v>128.8966854095715</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99981415304295</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1755420008006</v>
+        <v>456.6032729699382</v>
       </c>
       <c r="K11" t="n">
-        <v>944.6838499762997</v>
+        <v>1172.111580945437</v>
       </c>
       <c r="L11" t="n">
-        <v>1874.308897595576</v>
+        <v>2101.736628564714</v>
       </c>
       <c r="M11" t="n">
-        <v>2878.594999014635</v>
+        <v>3106.022729983772</v>
       </c>
       <c r="N11" t="n">
-        <v>3854.846057501336</v>
+        <v>3418.06961410812</v>
       </c>
       <c r="O11" t="n">
-        <v>4699.990707652148</v>
+        <v>3418.06961410812</v>
       </c>
       <c r="P11" t="n">
-        <v>4699.990707652148</v>
+        <v>4126.348893266048</v>
       </c>
       <c r="Q11" t="n">
-        <v>4699.990707652148</v>
+        <v>4582.434372770231</v>
       </c>
       <c r="R11" t="n">
-        <v>4699.990707652148</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="S11" t="n">
-        <v>4595.623413525288</v>
+        <v>4595.623413525273</v>
       </c>
       <c r="T11" t="n">
-        <v>4374.697842569921</v>
+        <v>4374.697842569906</v>
       </c>
       <c r="U11" t="n">
-        <v>4116.342933166333</v>
+        <v>4116.342933166318</v>
       </c>
       <c r="V11" t="n">
-        <v>3758.853518292583</v>
+        <v>3758.853518292568</v>
       </c>
       <c r="W11" t="n">
-        <v>3362.46216859293</v>
+        <v>3362.462168592915</v>
       </c>
       <c r="X11" t="n">
-        <v>2950.742169760677</v>
+        <v>2950.742169760662</v>
       </c>
       <c r="Y11" t="n">
-        <v>2545.404899715567</v>
+        <v>2545.404899715553</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>661.1233051844981</v>
+        <v>661.1233051844979</v>
       </c>
       <c r="C12" t="n">
-        <v>543.6174017020029</v>
+        <v>543.6174017020027</v>
       </c>
       <c r="D12" t="n">
-        <v>439.777443217288</v>
+        <v>439.7774432172877</v>
       </c>
       <c r="E12" t="n">
-        <v>335.0755094902252</v>
+        <v>335.0755094902249</v>
       </c>
       <c r="F12" t="n">
-        <v>241.4296791731293</v>
+        <v>241.429679173129</v>
       </c>
       <c r="G12" t="n">
-        <v>147.3759073907333</v>
+        <v>147.3759073907331</v>
       </c>
       <c r="H12" t="n">
-        <v>93.99981415304295</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I12" t="n">
-        <v>93.99981415304295</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J12" t="n">
-        <v>365.697303432634</v>
+        <v>349.2270213979032</v>
       </c>
       <c r="K12" t="n">
-        <v>365.697303432634</v>
+        <v>349.2270213979032</v>
       </c>
       <c r="L12" t="n">
-        <v>1186.489727695055</v>
+        <v>349.2270213979032</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.489727695055</v>
+        <v>349.2270213979032</v>
       </c>
       <c r="N12" t="n">
-        <v>1186.489727695055</v>
+        <v>1438.541967870773</v>
       </c>
       <c r="O12" t="n">
-        <v>1186.489727695055</v>
+        <v>1438.541967870773</v>
       </c>
       <c r="P12" t="n">
-        <v>1902.687444733553</v>
+        <v>1438.541967870773</v>
       </c>
       <c r="Q12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="R12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="S12" t="n">
         <v>1821.363197294807</v>
@@ -5162,10 +5162,10 @@
         <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>929.7432032512685</v>
+        <v>929.7432032512683</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.0503146045609</v>
+        <v>790.0503146045606</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>318.0788797027068</v>
+        <v>365.1174930155332</v>
       </c>
       <c r="C13" t="n">
-        <v>146.1063165816228</v>
+        <v>193.1449298944492</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99981415304295</v>
+        <v>193.1449298944492</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99981415304295</v>
+        <v>193.1449298944492</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99981415304295</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99981415304295</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99981415304295</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99981415304295</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J13" t="n">
-        <v>151.491142377201</v>
+        <v>151.4911423772007</v>
       </c>
       <c r="K13" t="n">
-        <v>378.0187435830381</v>
+        <v>378.0187435830379</v>
       </c>
       <c r="L13" t="n">
-        <v>732.7080648774589</v>
+        <v>732.7080648774586</v>
       </c>
       <c r="M13" t="n">
-        <v>1123.89385984771</v>
+        <v>1123.893859847709</v>
       </c>
       <c r="N13" t="n">
-        <v>1501.385370723746</v>
+        <v>1501.385370723745</v>
       </c>
       <c r="O13" t="n">
-        <v>1856.813499403509</v>
+        <v>1856.813499403508</v>
       </c>
       <c r="P13" t="n">
         <v>2147.412711325409</v>
@@ -5223,28 +5223,28 @@
         <v>2274.412841566171</v>
       </c>
       <c r="R13" t="n">
-        <v>2227.374228253344</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2057.239180772479</v>
+        <v>2104.277794085306</v>
       </c>
       <c r="T13" t="n">
-        <v>1813.899832998379</v>
+        <v>1860.938446311206</v>
       </c>
       <c r="U13" t="n">
-        <v>1533.715384498684</v>
+        <v>1580.75399781151</v>
       </c>
       <c r="V13" t="n">
-        <v>1252.003917106712</v>
+        <v>1299.042530419539</v>
       </c>
       <c r="W13" t="n">
-        <v>977.1515132792254</v>
+        <v>1024.190126592052</v>
       </c>
       <c r="X13" t="n">
-        <v>734.5876167250304</v>
+        <v>781.6262300378568</v>
       </c>
       <c r="Y13" t="n">
-        <v>508.2448484147725</v>
+        <v>555.2834617275988</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L14" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L15" t="n">
-        <v>1529.586448057074</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M15" t="n">
-        <v>1529.586448057074</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N15" t="n">
-        <v>1529.586448057074</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O15" t="n">
-        <v>1529.586448057074</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5524,22 +5524,22 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4478291472353</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4478291472353</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>201.4478291472353</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5834,25 +5834,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3845.931202281451</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>3845.931202281451</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3845.931202281451</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3845.931202281451</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6229,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3100.930848725444</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3100.930848725444</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4362.434577686963</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291426</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291426</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291426</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6779,25 +6779,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7022,16 +7022,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818556</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291426</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291426</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,19 +7399,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,28 +7420,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>4143.246847793824</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M42" t="n">
-        <v>4143.246847793824</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N42" t="n">
-        <v>5115.135670291426</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O42" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P42" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3205.840321740789</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3098.039415751527</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>4945.000622810561</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4701.661275036461</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4421.476826536766</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4139.765359144794</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>3864.912955317307</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3622.349058763113</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
         <v>435.0679631883225</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1581.174581076927</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M44" t="n">
-        <v>2585.460682495986</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N44" t="n">
-        <v>3561.711740982686</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O44" t="n">
-        <v>4406.856391133499</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P44" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N45" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P45" t="n">
         <v>1910.990343986338</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>775.7107933313492</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>603.7382302102652</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1991.347298127326</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.635830735355</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.783426907868</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.219530353673</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.8767620434148</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M2" t="n">
-        <v>110.4928214404738</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>171.3630160154378</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>463.1564485244919</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8218,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>204.8788014195786</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3705437721216</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>571.1852249800523</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8534,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721216</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291356</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>165.9610987257458</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8701,19 +8701,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>352.4784956873221</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>278.4163741766267</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>851.5983435449575</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9011,7 +9011,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P15" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9406,13 +9406,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>878.1144544646197</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9482,7 +9482,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>293.0516819980064</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9877,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9968,16 +9968,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>300.5735435756951</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10436,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>383.3462223301476</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>121.8329647736524</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,16 +10910,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.60750039798516</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11150,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>809.386345155451</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,19 +11381,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -22549,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>313.7480570579554</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22564,10 +22564,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,19 +22600,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>390.0809333668319</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22716,13 +22716,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>37.17550349668772</v>
+        <v>2.326677470262183</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22801,7 +22801,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>110.569145324816</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22843,7 +22843,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>234.9013593127087</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>19.29091348988686</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>277.4770771158196</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>239.197566816515</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.4649003340604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>368.2257402086645</v>
+        <v>402.7736427526425</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402029</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919274</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>112.96068638438</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>47.1854451728326</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18544517283162</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>106.2309441183566</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>63.52994056050377</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.8338000463431</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>458021.1317160086</v>
+        <v>458021.1317160087</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>716455.3054896001</v>
+        <v>716455.3054895985</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>759802.4575137454</v>
+        <v>759802.4575137453</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759802.4575137452</v>
+        <v>759802.4575137453</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759802.4575137454</v>
+        <v>759802.4575137453</v>
       </c>
     </row>
     <row r="16">
@@ -26322,10 +26322,10 @@
         <v>169412.1915076495</v>
       </c>
       <c r="E2" t="n">
-        <v>264984.810587169</v>
+        <v>264984.8105871685</v>
       </c>
       <c r="F2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="G2" t="n">
         <v>281015.2015687237</v>
@@ -26334,10 +26334,10 @@
         <v>281015.2015687237</v>
       </c>
       <c r="I2" t="n">
-        <v>281015.2015687237</v>
+        <v>281015.2015687238</v>
       </c>
       <c r="J2" t="n">
-        <v>281015.2015687237</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="K2" t="n">
         <v>281015.2015687236</v>
@@ -26346,16 +26346,16 @@
         <v>281015.2015687237</v>
       </c>
       <c r="M2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="N2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="O2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="P2" t="n">
-        <v>281015.2015687235</v>
+        <v>281015.2015687238</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>184751.0683929129</v>
+        <v>184751.0683929118</v>
       </c>
       <c r="F3" t="n">
-        <v>29737.45639129547</v>
+        <v>29737.4563912966</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154199.925137778</v>
+        <v>154199.925137777</v>
       </c>
       <c r="N3" t="n">
-        <v>25420.05256608763</v>
+        <v>25420.0525660886</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="C4" t="n">
         <v>34949.1061971525</v>
       </c>
       <c r="D4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="E4" t="n">
-        <v>54744.27166306667</v>
+        <v>54744.27166306655</v>
       </c>
       <c r="F4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>71439.85875631263</v>
+        <v>71439.85875631242</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119387.8991416684</v>
+        <v>-119996.944854158</v>
       </c>
       <c r="C6" t="n">
-        <v>67016.83427306889</v>
+        <v>66407.78856057927</v>
       </c>
       <c r="D6" t="n">
-        <v>67016.83427306892</v>
+        <v>66407.78856057924</v>
       </c>
       <c r="E6" t="n">
-        <v>-45950.38822512323</v>
+        <v>-46081.57084221435</v>
       </c>
       <c r="F6" t="n">
-        <v>115463.1691371188</v>
+        <v>115412.1384749335</v>
       </c>
       <c r="G6" t="n">
-        <v>145200.6255284144</v>
+        <v>145149.5948662301</v>
       </c>
       <c r="H6" t="n">
-        <v>145200.6255284144</v>
+        <v>145149.59486623</v>
       </c>
       <c r="I6" t="n">
-        <v>145200.6255284144</v>
+        <v>145149.5948662302</v>
       </c>
       <c r="J6" t="n">
-        <v>-333.0444064021285</v>
+        <v>-384.0750685865345</v>
       </c>
       <c r="K6" t="n">
-        <v>145200.6255284143</v>
+        <v>145149.59486623</v>
       </c>
       <c r="L6" t="n">
-        <v>145200.6255284144</v>
+        <v>145149.59486623</v>
       </c>
       <c r="M6" t="n">
-        <v>-8999.299609363661</v>
+        <v>-9050.330271546933</v>
       </c>
       <c r="N6" t="n">
-        <v>119780.5729623267</v>
+        <v>119729.5423001414</v>
       </c>
       <c r="O6" t="n">
-        <v>145200.6255284143</v>
+        <v>145149.5948662301</v>
       </c>
       <c r="P6" t="n">
-        <v>145200.6255284142</v>
+        <v>145149.5948662302</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1174.997676913037</v>
+        <v>1174.997676913033</v>
       </c>
       <c r="F4" t="n">
         <v>1278.783917572857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>618.7698637974429</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="F4" t="n">
-        <v>103.7862406598196</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974429</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598196</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974429</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598196</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M2" t="n">
-        <v>73.06155854104202</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>167.4878420635545</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.227813115594</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.5411392401593</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35421,19 +35421,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>315.1988728528761</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>829.0832568307279</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P15" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>839.8024120319968</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36202,7 +36202,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>277.4016538534729</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>86.8003148788559</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.48282579338712</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>771.0743027228281</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
